--- a/biology/Zoologie/Bécune/Bécune.xlsx
+++ b/biology/Zoologie/Bécune/Bécune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9cune</t>
+          <t>Bécune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sphyraena est un genre de poissons, communément appelés sphyrènes, de la famille monotypique des Sphyraenidae. Ce genre regroupe entre 18 et 20 espèces de poissons prédateurs réparties dans les eaux tropicales et subtropicales et nommées barracudas ou bécunes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9cune</t>
+          <t>Bécune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de grands poissons tropicaux et subtropicaux, dont on trouve des espèces dans tous les principaux bassins océaniques. Le corps est fuselé, ce qui leur permet des pointes de vitesse importantes. La bouche est grande avec une mâchoire inférieure prognathe (plus longue que la supérieure), et des dents acérées, disposées en lame de scie. La mâchoire supérieure n'est pas protractile, ce qui est une apomorphie permettant de se nourrir de proies plus coriaces. La ligne latérale est bien développée, et les peignes branchiaux vestigiaux. Les nageoires pectorales sont implantées assez bas, et la dorsale est divisée en deux : la première contient cinq épines, et la seconde une épine et six rayons mous. Les vertèbres sont au nombre de 24[3]. 
-Ce sont des prédateurs voraces d'autres poissons et de céphalopodes, pouvant parfois blesser des humains. La reproduction a lieu en pleine mer, en bancs[3]. Plusieurs espèces sont pêchées pour le commerce ou dans le cadre de la pêche au gros, mais peuvent être rendues toxiques par des infections à la ciguatera[3]. 
-La plus grande espèce, Sphyraena afra, peut atteindre 205 cm et peser 50 kg[4]. Les bécunes se distinguent du grand Barracuda par l'absence de taches noires sur l'arrière du corps, comme sur la photo ci-contre d'un « vrai » Barracuda.  Le grand barracuda (Sphyraena barracuda) se distingue aussi par l'odeur forte caractéristique de son mucus, ainsi que des dents encore visibles lorsque la mâchoire est fermée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de grands poissons tropicaux et subtropicaux, dont on trouve des espèces dans tous les principaux bassins océaniques. Le corps est fuselé, ce qui leur permet des pointes de vitesse importantes. La bouche est grande avec une mâchoire inférieure prognathe (plus longue que la supérieure), et des dents acérées, disposées en lame de scie. La mâchoire supérieure n'est pas protractile, ce qui est une apomorphie permettant de se nourrir de proies plus coriaces. La ligne latérale est bien développée, et les peignes branchiaux vestigiaux. Les nageoires pectorales sont implantées assez bas, et la dorsale est divisée en deux : la première contient cinq épines, et la seconde une épine et six rayons mous. Les vertèbres sont au nombre de 24. 
+Ce sont des prédateurs voraces d'autres poissons et de céphalopodes, pouvant parfois blesser des humains. La reproduction a lieu en pleine mer, en bancs. Plusieurs espèces sont pêchées pour le commerce ou dans le cadre de la pêche au gros, mais peuvent être rendues toxiques par des infections à la ciguatera. 
+La plus grande espèce, Sphyraena afra, peut atteindre 205 cm et peser 50 kg. Les bécunes se distinguent du grand Barracuda par l'absence de taches noires sur l'arrière du corps, comme sur la photo ci-contre d'un « vrai » Barracuda.  Le grand barracuda (Sphyraena barracuda) se distingue aussi par l'odeur forte caractéristique de son mucus, ainsi que des dents encore visibles lorsque la mâchoire est fermée.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9cune</t>
+          <t>Bécune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (16 février 2019)[11] :
-† Sphyraena bolcensis Agassiz, 1844
-Liste complémentaire
-† Sphyraena olisiponensis Jonet, 1967</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (16 février 2019) :
+† Sphyraena bolcensis Agassiz, 1844</t>
         </is>
       </c>
     </row>
@@ -559,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9cune</t>
+          <t>Bécune</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +588,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste complémentaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>† Sphyraena olisiponensis Jonet, 1967</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bécune</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9cune</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Sphyraena barracuda
@@ -587,40 +639,42 @@
 			Sphyraena helleri
 			Sphyraena japonica
 			Sphyraena obtusata
-			Sphyraena putnamae ou Barracuda à dents de scie[12].
-			Sphyraena qenie ou Barracuda à nageoires noires [13].
+			Sphyraena putnamae ou Barracuda à dents de scie.
+			Sphyraena qenie ou Barracuda à nageoires noires .
 			Sphyraena sphyraena
-			Sphyraena jello ou Barracuda jello[14]
+			Sphyraena jello ou Barracuda jello
 			Sphyraena viridensis
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B%C3%A9cune</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bécune</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/B%C3%A9cune</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Homoplasie du Brochet</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à la croyance populaire et à l'apparence, le barracuda n'est pas dans la même famille que le brochet, auquel il n'est d'ailleurs pas du tout apparenté. C'est un exemple d'évolution convergente.
 </t>
